--- a/5yrQRsorted_alpha04.xlsx
+++ b/5yrQRsorted_alpha04.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6155249E-79BF-CE44-839B-EDAB8CC261FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D425E7-96FF-5B4A-AF90-DA11AB2C8EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>yyyymm</t>
   </si>
@@ -983,6 +995,9 @@
   </si>
   <si>
     <t>0.95</t>
+  </si>
+  <si>
+    <t>201501</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V301"/>
+  <dimension ref="A1:V302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21819,6 +21834,74 @@
         <v>1.3497501314433049E-2</v>
       </c>
     </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>321</v>
+      </c>
+      <c r="C302">
+        <v>8.794038852274335E-3</v>
+      </c>
+      <c r="D302">
+        <v>-4.3753011025358616E-3</v>
+      </c>
+      <c r="E302">
+        <v>-3.4291933734355842E-3</v>
+      </c>
+      <c r="F302">
+        <v>-2.8042081856414101E-3</v>
+      </c>
+      <c r="G302">
+        <v>-9.1585034204400353E-4</v>
+      </c>
+      <c r="H302">
+        <v>6.5047960499949042E-5</v>
+      </c>
+      <c r="I302">
+        <v>8.1148852074970634E-4</v>
+      </c>
+      <c r="J302">
+        <v>1.2465219225845511E-3</v>
+      </c>
+      <c r="K302">
+        <v>1.9042891791990479E-3</v>
+      </c>
+      <c r="L302">
+        <v>2.560020124964001E-3</v>
+      </c>
+      <c r="M302">
+        <v>2.573160042130367E-3</v>
+      </c>
+      <c r="N302">
+        <v>2.8945674085974621E-3</v>
+      </c>
+      <c r="O302">
+        <v>3.5232258038069559E-3</v>
+      </c>
+      <c r="P302">
+        <v>3.9194803593047486E-3</v>
+      </c>
+      <c r="Q302">
+        <v>4.2416638169915852E-3</v>
+      </c>
+      <c r="R302">
+        <v>5.5370988098561004E-3</v>
+      </c>
+      <c r="S302">
+        <v>6.9415334610016246E-3</v>
+      </c>
+      <c r="T302">
+        <v>7.536914040112544E-3</v>
+      </c>
+      <c r="U302">
+        <v>8.8109012711525755E-3</v>
+      </c>
+      <c r="V302">
+        <v>1.294367333660382E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
